--- a/dados/previsoes/todas_rodadas.xlsx
+++ b/dados/previsoes/todas_rodadas.xlsx
@@ -10119,10 +10119,18 @@
           <t>Gremio</t>
         </is>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-      <c r="H262" t="inlineStr"/>
+      <c r="E262" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="F262" t="n">
+        <v>1</v>
+      </c>
+      <c r="G262" t="n">
+        <v>2</v>
+      </c>
+      <c r="H262" t="n">
+        <v>0.9</v>
+      </c>
       <c r="I262" t="inlineStr">
         <is>
           <t>Ath Paranaense</t>
@@ -10148,10 +10156,18 @@
           <t>Coritiba</t>
         </is>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-      <c r="H263" t="inlineStr"/>
+      <c r="E263" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F263" t="n">
+        <v>0</v>
+      </c>
+      <c r="G263" t="n">
+        <v>3</v>
+      </c>
+      <c r="H263" t="n">
+        <v>0.4</v>
+      </c>
       <c r="I263" t="inlineStr">
         <is>
           <t>Cuiaba</t>
@@ -10177,10 +10193,18 @@
           <t>America (MG)</t>
         </is>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-      <c r="H264" t="inlineStr"/>
+      <c r="E264" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F264" t="n">
+        <v>1</v>
+      </c>
+      <c r="G264" t="n">
+        <v>2</v>
+      </c>
+      <c r="H264" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I264" t="inlineStr">
         <is>
           <t>Botafogo (RJ)</t>
@@ -10206,10 +10230,18 @@
           <t>Cruzeiro</t>
         </is>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-      <c r="H265" t="inlineStr"/>
+      <c r="E265" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F265" t="n">
+        <v>0</v>
+      </c>
+      <c r="G265" t="n">
+        <v>2</v>
+      </c>
+      <c r="H265" t="n">
+        <v>1.9</v>
+      </c>
       <c r="I265" t="inlineStr">
         <is>
           <t>Flamengo</t>
@@ -10235,10 +10267,18 @@
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-      <c r="H266" t="inlineStr"/>
+      <c r="E266" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F266" t="n">
+        <v>0</v>
+      </c>
+      <c r="G266" t="n">
+        <v>2</v>
+      </c>
+      <c r="H266" t="n">
+        <v>1</v>
+      </c>
       <c r="I266" t="inlineStr">
         <is>
           <t>Atletico Mineiro</t>
@@ -10264,10 +10304,18 @@
           <t>Santos</t>
         </is>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-      <c r="H267" t="inlineStr"/>
+      <c r="E267" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F267" t="n">
+        <v>1</v>
+      </c>
+      <c r="G267" t="n">
+        <v>3</v>
+      </c>
+      <c r="H267" t="n">
+        <v>2.4</v>
+      </c>
       <c r="I267" t="inlineStr">
         <is>
           <t>Bragantino</t>
@@ -10293,10 +10341,18 @@
           <t>Bahia</t>
         </is>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-      <c r="H268" t="inlineStr"/>
+      <c r="E268" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F268" t="n">
+        <v>1</v>
+      </c>
+      <c r="G268" t="n">
+        <v>0</v>
+      </c>
+      <c r="H268" t="n">
+        <v>0.6</v>
+      </c>
       <c r="I268" t="inlineStr">
         <is>
           <t>Internacional</t>
@@ -10322,10 +10378,18 @@
           <t>Vasco da Gama</t>
         </is>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-      <c r="H269" t="inlineStr"/>
+      <c r="E269" t="n">
+        <v>2</v>
+      </c>
+      <c r="F269" t="n">
+        <v>1</v>
+      </c>
+      <c r="G269" t="n">
+        <v>0</v>
+      </c>
+      <c r="H269" t="n">
+        <v>0.7</v>
+      </c>
       <c r="I269" t="inlineStr">
         <is>
           <t>Fortaleza</t>
@@ -10351,10 +10415,18 @@
           <t>Goias</t>
         </is>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-      <c r="H270" t="inlineStr"/>
+      <c r="E270" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F270" t="n">
+        <v>2</v>
+      </c>
+      <c r="G270" t="n">
+        <v>0</v>
+      </c>
+      <c r="H270" t="n">
+        <v>0.5</v>
+      </c>
       <c r="I270" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
@@ -10380,10 +10452,18 @@
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-      <c r="H271" t="inlineStr"/>
+      <c r="E271" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="F271" t="n">
+        <v>3</v>
+      </c>
+      <c r="G271" t="n">
+        <v>3</v>
+      </c>
+      <c r="H271" t="n">
+        <v>2</v>
+      </c>
       <c r="I271" t="inlineStr">
         <is>
           <t>Corinthians</t>
